--- a/K/instagram_crawling 2020-09-23 16.xlsx
+++ b/K/instagram_crawling 2020-09-23 16.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김신\Documents\GitHub\Code_Zero\K\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960DADE1-AC6E-4A1C-8D31-9672F1F95636}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A014EA2-0695-4462-8789-BA0E776C80A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -31,37 +31,89 @@
     <t>Date</t>
   </si>
   <si>
+    <t>Place</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>seantaste</t>
+  </si>
+  <si>
+    <t>⠀⠀🔹녹동양조장 with어떤하루⠀▪️고유 [고흥유자주] 12.0가벼운 목 넘김과 상큼하고 부드러운 유자의 향, 막걸리의 맑은 윗부분의 맛이 살살 나기도 했고 고흥의 재료를 담아 만들어서 좀 더 맛있는 것 같기도 했다. 파스타뿐만 아니라 식후 디저트와도 잘 어울릴 것 같다는 생각을 해봤다.술담화에서 첨부해 주신 레시피를 따라 탄산수와 얼음 그리고 고흥유자주를 섞어 마셔봤는데 산뜻한 샴페인을 마시는 것 같은 느낌과 알코올의 부담이 줄어드는 것은 좋았지만 유자의 향이 약해지는 게 조금 아쉬웠다. 탄산수를 넣고 싶다면 정말 조금만 넣는 게 좋을 것 같다.⠀🔸술담화 8월 담화박스를 통해서 접하게 된 전통주, 담화박스 안에 어울리는 안주까지 적어 주셔서 국가비님의 원팬 레시피를 따라 집에 있는 재료를 넣어서 오일 파스타를 만들었다.⠀▫️#술담화 #어떤하루 #국가비 #고흥유자주 #오일파스타 #술안주 #술한잔 #술상 #행궁동맛집 #행궁동 #집콕 #집콕놀이 #집들이음식 #집콕중 #안주맛집</t>
+  </si>
+  <si>
+    <t>2020-09-10</t>
+  </si>
+  <si>
+    <t>Suwon</t>
+  </si>
+  <si>
+    <t>['#술담화', '#어떤하루', '#국가비', '#고흥유자주', '#오일파스타', '#술안주', '#술한잔', '#술상', '#행궁동맛집', '#행궁동', '#집콕', '#집콕놀이', '#집들이음식', '#집콕중', '#안주맛집']</t>
+  </si>
+  <si>
+    <t>sooldamhwa</t>
+  </si>
+  <si>
+    <t>🎊지난주 주말🎊⠀담화맨이 제주도에서 백종원 선생님을 만나고 왔습니다!⠀맛남의 광장 [제주도편] 보신분!🙋🏻‍♂️🍊</t>
+  </si>
+  <si>
+    <t>2020-02-03</t>
+  </si>
+  <si>
+    <t>Jeju</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>🎁1년 구독 기념 전용잔🎁⠀2020년 첫 번째 프로젝트이자 술담화의 첫 번째 오피셜 굿즈입니다.(술담화에서 직접 디자인 했답니다🙆🏻‍♀️!)⠀술을 마실 때 잔을 빼놓을 수 없잖아요! 그런 의미에서 1년 동안 담화박스를 구독해주신 분들에게 아담한 술잔을 선물했습니다❣⠀모두 황금 연휴 알차게 보내세요! 늘 감사합니다🙏⠀#술담화 #이천도자기공방 #단고재 #전용잔 #술잔 #술담화전용잔 #술담화굿즈 #1년구독이라뇨 #감사합니다!</t>
+  </si>
+  <si>
+    <t>2020-05-01</t>
+  </si>
+  <si>
+    <t>['#술담화', '#이천도자기공방', '#단고재', '#전용잔', '#술잔', '#술담화전용잔', '#술담화굿즈', '#1년구독이라뇨', '#감사합니다!']</t>
+  </si>
+  <si>
+    <t>sulseam</t>
+  </si>
+  <si>
+    <t>이번달 담화박스 속 꿀샘16 모두 잘 받으셨나요? 🥰꿀샘16 맛있게 마시는 꿀팁🌝1. 마시기 30분전 냉동고에 넣어 아주 차게 마신다!2. 안주는 크랜베리가 들어간 견과류 추천❤️3. 사랑하는 사람과 함께한 식사 후에 마무리로 즐긴다#술샘 #양조장 #우리술 #전통주 #술담화 #담화박스 #술 #술스타그램 #식전주 #식후주 #꿀 #리큐르 #꿀샘16 #꿀술 #꿀소주</t>
+  </si>
+  <si>
+    <t>2020-08-20</t>
+  </si>
+  <si>
+    <t>농업회사법인 주)술샘</t>
+  </si>
+  <si>
+    <t>['#술샘', '#양조장', '#우리술', '#전통주', '#술담화', '#담화박스', '#술', '#술스타그램', '#식전주', '#식후주', '#꿀', '#리큐르', '#꿀샘16', '#꿀술', '#꿀소주']</t>
+  </si>
+  <si>
+    <t>by_fulloflove</t>
+  </si>
+  <si>
+    <t>엽이가 신청한 술정기구독 😋이거 꽤 설레이는데?다음달은 뭘까 🤤-한달에 한번주제에 맞춰서 술을 보내주는데이 술의 유래, 어울리는 안주 등등 알려줘요!그저 마시기만 했던 술을이렇게 구독해보니남편이랑 하나하나 음미하면서알아가는 재미가 있더라구요 😉(가격도 좀더 착하구요~)-#애주가부부#술담화 #찾아오는인생술#술정기구독 #🍾🍶🍷🍸🍹🍺🥂</t>
+  </si>
+  <si>
+    <t>2020-06-01</t>
+  </si>
+  <si>
+    <t>['#애주가부부', '#술담화', '#찾아오는인생술', '#술정기구독', '#🍾🍶🍷🍸🍹🍺🥂']</t>
+  </si>
+  <si>
     <t>Like</t>
-  </si>
-  <si>
-    <t>Place</t>
-  </si>
-  <si>
-    <t>Tag</t>
-  </si>
-  <si>
-    <t>seantaste</t>
-  </si>
-  <si>
-    <t>⠀⠀🔹녹동양조장 with어떤하루⠀▪️고유 [고흥유자주] 12.0가벼운 목 넘김과 상큼하고 부드러운 유자의 향, 막걸리의 맑은 윗부분의 맛이 살살 나기도 했고 고흥의 재료를 담아 만들어서 좀 더 맛있는 것 같기도 했다. 파스타뿐만 아니라 식후 디저트와도 잘 어울릴 것 같다는 생각을 해봤다.술담화에서 첨부해 주신 레시피를 따라 탄산수와 얼음 그리고 고흥유자주를 섞어 마셔봤는데 산뜻한 샴페인을 마시는 것 같은 느낌과 알코올의 부담이 줄어드는 것은 좋았지만 유자의 향이 약해지는 게 조금 아쉬웠다. 탄산수를 넣고 싶다면 정말 조금만 넣는 게 좋을 것 같다.⠀🔸술담화 8월 담화박스를 통해서 접하게 된 전통주, 담화박스 안에 어울리는 안주까지 적어 주셔서 국가비님의 원팬 레시피를 따라 집에 있는 재료를 넣어서 오일 파스타를 만들었다.⠀▫️#술담화 #어떤하루 #국가비 #고흥유자주 #오일파스타 #술안주 #술한잔 #술상 #행궁동맛집 #행궁동 #집콕 #집콕놀이 #집들이음식 #집콕중 #안주맛집</t>
-  </si>
-  <si>
-    <t>2020-09-10</t>
-  </si>
-  <si>
-    <t>좋아요 408개</t>
-  </si>
-  <si>
-    <t>Suwon</t>
-  </si>
-  <si>
-    <t>['#술담화', '#어떤하루', '#국가비', '#고흥유자주', '#오일파스타', '#술안주', '#술한잔', '#술상', '#행궁동맛집', '#행궁동', '#집콕', '#집콕놀이', '#집들이음식', '#집콕중', '#안주맛집']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -120,11 +172,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -427,15 +485,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="255.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="114.625" customWidth="1"/>
+    <col min="5" max="5" width="6.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="161" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -449,14 +509,14 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -464,22 +524,108 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="4">
+        <v>409</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="C3" t="s">
         <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1808</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2">
+        <v>575</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2">
+        <v>145</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2">
+        <v>114</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
